--- a/xlwings文档/test2.xlsx
+++ b/xlwings文档/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="8670" windowHeight="8360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -989,7 +989,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
